--- a/biology/Zoologie/Ero_koreana/Ero_koreana.xlsx
+++ b/biology/Zoologie/Ero_koreana/Ero_koreana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ero koreana est une espèce d'araignées aranéomorphes de la famille des Mimetidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ero koreana est une espèce d'araignées aranéomorphes de la famille des Mimetidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Corée du Sud, au Japon, en Chine, en Mongolie, au Kazakhstan, en Russie, en Géorgie, en Ukraine et en Bulgarie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Corée du Sud, au Japon, en Chine, en Mongolie, au Kazakhstan, en Russie, en Géorgie, en Ukraine et en Bulgarie.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 5,56 mm[2].
-Le mâle décrit par Kim et Ye en 2016 mesure 4,06 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 5,56 mm.
+Le mâle décrit par Kim et Ye en 2016 mesure 4,06 mm.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite par Paik en 1967. Elle est placée dans le genre Ermetus par Lissner en 2018[4] puis replacée dans le genre Ero par Benavides et Hormiga en 2020[5].
-Ermetus inopinabilis[6] a été placée en synonymie par Lissner en 2018[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite par Paik en 1967. Elle est placée dans le genre Ermetus par Lissner en 2018 puis replacée dans le genre Ero par Benavides et Hormiga en 2020.
+Ermetus inopinabilis a été placée en synonymie par Lissner en 2018.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, la Corée.
 </t>
@@ -637,7 +657,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Paik, 1967 : The Mimetidae (Araneae) of Korea. Theses collection of Kyungpook University, vol. 11, p. 185-196.</t>
         </is>
